--- a/Figures/Brain Canada Longitudinal Manuscript Tables.xlsx
+++ b/Figures/Brain Canada Longitudinal Manuscript Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yavuzshahzad/Desktop/BRAIN-Lab-TST-Longitudinal/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE423EE6-B01D-9543-96F4-79E5A74ECBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C828A99-622E-DB4C-96FE-9C0DF7F1A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9F3E6CC9-95BC-F049-A57D-5FCA614184A6}"/>
+    <workbookView xWindow="30880" yWindow="960" windowWidth="28800" windowHeight="17540" xr2:uid="{9F3E6CC9-95BC-F049-A57D-5FCA614184A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
   <si>
     <t>Handedness (right/left)</t>
   </si>
@@ -86,24 +86,12 @@
     <t>Table II: Differences Between Groups at Baseline</t>
   </si>
   <si>
-    <t>P-Value †</t>
-  </si>
-  <si>
-    <t>† ANCOVA (covariate = baseline measure)</t>
-  </si>
-  <si>
     <t>12/4/1</t>
   </si>
   <si>
     <t>Table III: Mean Differences Between Follow Ups</t>
   </si>
   <si>
-    <t>(-0.40, 1.32)</t>
-  </si>
-  <si>
-    <t>(-2.16, 2.44)</t>
-  </si>
-  <si>
     <t>(-0.19, 0.18)</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>(-1.77, 0.82)</t>
   </si>
   <si>
-    <t>*Wilcoxon signed-rank test (p &lt; 0.05)</t>
-  </si>
-  <si>
     <t>146.71 ± 37.32</t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>T3 - T2</t>
-  </si>
-  <si>
     <t>95% CI</t>
   </si>
   <si>
@@ -236,7 +218,103 @@
     <t>*Mann-Whitney U Test for continuous variables, Chi-square test for independence for proportions</t>
   </si>
   <si>
-    <t>-0.43</t>
+    <t>Table IV: Mixed ANOVA Results</t>
+  </si>
+  <si>
+    <t>F_{2, 23} †</t>
+  </si>
+  <si>
+    <t>0.0005*</t>
+  </si>
+  <si>
+    <t>0.0047*</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Shoulder AROM</t>
+  </si>
+  <si>
+    <t>Elbow AROM</t>
+  </si>
+  <si>
+    <t>Wrist AROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 0.0001*</t>
+  </si>
+  <si>
+    <t>(1.44, 4.00)</t>
+  </si>
+  <si>
+    <t>(-0.40, 1.36)</t>
+  </si>
+  <si>
+    <t>(0.88, 3.64)</t>
+  </si>
+  <si>
+    <t>(1.54, 3.87)</t>
+  </si>
+  <si>
+    <t>(1.55, 3.83)</t>
+  </si>
+  <si>
+    <t>(0.40, 0.87)</t>
+  </si>
+  <si>
+    <t>(0.31, 0.66)</t>
+  </si>
+  <si>
+    <t>(0.03, 0.60)</t>
+  </si>
+  <si>
+    <t>(0.13, 0.49)</t>
+  </si>
+  <si>
+    <t>(-2.24, 5.16)</t>
+  </si>
+  <si>
+    <t>(2.44, 14.81)</t>
+  </si>
+  <si>
+    <t>(1.68, 12.76)</t>
+  </si>
+  <si>
+    <t>Pr(&gt; F) †</t>
+  </si>
+  <si>
+    <t>† F-statistic corresponding to Follow Up in two-way ANOVA with MEP group and Follow Up as main effects and a covariate in Participant ID</t>
+  </si>
+  <si>
+    <t>T3 - T2 Δ</t>
+  </si>
+  <si>
+    <t>T3 - T1 Δ</t>
+  </si>
+  <si>
+    <t>T2 - T1 Δ</t>
+  </si>
+  <si>
+    <t>Δ P-value of post-hoc wilcoxon signed-rank test with Holm-Bonferroni correction for multiple comparisons. (*) denotes significance.</t>
+  </si>
+  <si>
+    <t>0.0004*</t>
+  </si>
+  <si>
+    <t>0.0011*</t>
+  </si>
+  <si>
+    <t>0.0237*</t>
+  </si>
+  <si>
+    <t>0.0041*</t>
+  </si>
+  <si>
+    <t>0.0089*</t>
+  </si>
+  <si>
+    <t>0.0134*</t>
   </si>
 </sst>
 </file>
@@ -281,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,11 +367,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +428,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,435 +754,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B18CD5-FEE8-3542-83C5-0BF758A629C3}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
+    <col min="4" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.5299999999999999E-5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1807</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.909</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11.276</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1852</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.625</v>
+      </c>
+      <c r="C19" s="19">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.3407</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D32" s="14">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2.663E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2.653E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="10">
+        <v>8.0350000000000005E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="10">
+        <v>8.5279999999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.88390000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4.2810000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.32190000000000002</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2.663E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2.653E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="10">
-        <v>8.0350000000000005E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="10">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="10">
-        <v>8.5279999999999995E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.88390000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="10">
-        <v>4.2810000000000001E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A23:D23"/>
+  <mergeCells count="4">
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures/Brain Canada Longitudinal Manuscript Tables.xlsx
+++ b/Figures/Brain Canada Longitudinal Manuscript Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yavuzshahzad/Desktop/BRAIN-Lab-TST-Longitudinal/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C828A99-622E-DB4C-96FE-9C0DF7F1A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A26314-2C6A-4D47-9600-7E6EBB7D57C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30880" yWindow="960" windowWidth="28800" windowHeight="17540" xr2:uid="{9F3E6CC9-95BC-F049-A57D-5FCA614184A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>Handedness (right/left)</t>
   </si>
@@ -218,12 +218,6 @@
     <t>*Mann-Whitney U Test for continuous variables, Chi-square test for independence for proportions</t>
   </si>
   <si>
-    <t>Table IV: Mixed ANOVA Results</t>
-  </si>
-  <si>
-    <t>F_{2, 23} †</t>
-  </si>
-  <si>
     <t>0.0005*</t>
   </si>
   <si>
@@ -315,6 +309,45 @@
   </si>
   <si>
     <t>0.0134*</t>
+  </si>
+  <si>
+    <t>Table IV: Table IV: Differences in Improvement by Level of Post-Stroke Impairment</t>
+  </si>
+  <si>
+    <t>F_{2, 22} †</t>
+  </si>
+  <si>
+    <t>Impairment Level  F_{1, 23}</t>
+  </si>
+  <si>
+    <t>Follow Up F_{2, 22}</t>
+  </si>
+  <si>
+    <t>Interaction Effect F_{2, 22}</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F_{2, 22})</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F_{1, 23})</t>
+  </si>
+  <si>
+    <t>Pr(F_{2, 22})</t>
+  </si>
+  <si>
+    <t>&lt; 2e-16</t>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>&lt;0.00001</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
   </si>
 </sst>
 </file>
@@ -324,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +382,12 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,13 +798,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B18CD5-FEE8-3542-83C5-0BF758A629C3}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="184" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
     <col min="4" max="10" width="13" style="1" customWidth="1"/>
@@ -773,32 +815,224 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1196.1099999999999</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10.78</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>737.64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.909</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1233.49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11.276</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.28699999999999998</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>384.57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69299999999999995</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>450.88</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.6</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>90.08</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.625</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.7770000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.1E-2</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>251.21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.377</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.26300000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
@@ -816,25 +1050,25 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>57</v>
@@ -854,19 +1088,19 @@
         <v>0.1807</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>69</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -880,22 +1114,22 @@
         <v>0.16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -915,16 +1149,16 @@
         <v>20</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -944,16 +1178,16 @@
         <v>18</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -964,7 +1198,7 @@
         <v>21.568999999999999</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3">
         <v>5.8200000000000002E-2</v>
@@ -973,21 +1207,21 @@
         <v>19</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <v>5.625</v>
@@ -999,24 +1233,24 @@
         <v>0.15740000000000001</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1">
         <v>1.1020000000000001</v>
@@ -1025,27 +1259,27 @@
         <v>0.3407</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>0.58199999999999996</v>
@@ -1054,27 +1288,27 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1088,7 +1322,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1423,6 +1657,7 @@
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="A23:I23"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>